--- a/PVBatterySystem/for_redistribution_files_only/techanalysis.xlsx
+++ b/PVBatterySystem/for_redistribution_files_only/techanalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\NREL\PVTesBattery\PVBatterySystem\for_redistribution_files_only\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68A2E41-77D4-412F-A7BF-7D2D8ED60CE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F865D0-F233-435C-9D59-A2644D4ED049}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="17280" windowHeight="9030" activeTab="5" xr2:uid="{BEDA2F10-117C-4E83-BC6C-E741A0691D96}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="17280" windowHeight="9030" activeTab="5" xr2:uid="{BEDA2F10-117C-4E83-BC6C-E741A0691D96}"/>
   </bookViews>
   <sheets>
     <sheet name="SCR" sheetId="2" r:id="rId1"/>

--- a/PVBatterySystem/for_redistribution_files_only/techanalysis.xlsx
+++ b/PVBatterySystem/for_redistribution_files_only/techanalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\NREL\PVTesBattery\PVBatterySystem\for_redistribution_files_only\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F865D0-F233-435C-9D59-A2644D4ED049}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2447B123-F519-4184-80C5-39A6C0C5AE46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="17280" windowHeight="9030" activeTab="5" xr2:uid="{BEDA2F10-117C-4E83-BC6C-E741A0691D96}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="17280" windowHeight="9030" activeTab="5" xr2:uid="{C8878F5E-394E-4129-B1F3-FF874BA510DD}"/>
   </bookViews>
   <sheets>
     <sheet name="SCR" sheetId="2" r:id="rId1"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD40A28E-2D58-448B-92BC-B0A3D0CB08F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40866AC7-7C0C-4234-9CA6-35CF55EFD8FA}">
   <dimension ref="A1:AX30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4956,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0471429-3416-42F0-82AD-683C1CEF29A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1546C00B-6F27-4BB0-A2B7-2E07A2335F05}">
   <dimension ref="A1:AX30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9531,7 +9531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A8C2C6-7AA3-4A78-B33A-A7F16D915F04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B25BEA9-1D71-4A79-AA29-A3C04438CEB6}">
   <dimension ref="A1:AX30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14106,7 +14106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CE9A4E-4BF0-40CE-A10B-3505B20AD699}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE36F0D-F76E-4771-A64B-528D248292FF}">
   <dimension ref="A1:AX1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14273,7 +14273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0964FF82-91EB-4E7C-8753-275E6CF4D7C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96D7EBC-79DD-4DA9-985D-68FE16543FEC}">
   <dimension ref="A1:AX1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14440,7 +14440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5477EA8-F125-4171-BB33-BA29DF14386B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D82EAE-B08E-47FB-BD4D-1352629EDAE7}">
   <dimension ref="A1:AX1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/PVBatterySystem/for_redistribution_files_only/techanalysis.xlsx
+++ b/PVBatterySystem/for_redistribution_files_only/techanalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\NREL\PVTesBattery\PVBatterySystem\for_redistribution_files_only\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2447B123-F519-4184-80C5-39A6C0C5AE46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB70108-D508-4892-923E-BA222EF5B2BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="17280" windowHeight="9030" activeTab="5" xr2:uid="{C8878F5E-394E-4129-B1F3-FF874BA510DD}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="17280" windowHeight="9030" activeTab="5" xr2:uid="{84E24B57-05F6-4A39-9239-662A7798FC77}"/>
   </bookViews>
   <sheets>
     <sheet name="SCR" sheetId="2" r:id="rId1"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40866AC7-7C0C-4234-9CA6-35CF55EFD8FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ED19E6-ED3E-41D6-BFA9-5B29106D1ADF}">
   <dimension ref="A1:AX30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4956,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1546C00B-6F27-4BB0-A2B7-2E07A2335F05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689993BF-3605-46F3-82A1-555031DBE782}">
   <dimension ref="A1:AX30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9531,7 +9531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B25BEA9-1D71-4A79-AA29-A3C04438CEB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EBEA02-C269-4797-883F-1BCE7B611134}">
   <dimension ref="A1:AX30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14106,7 +14106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE36F0D-F76E-4771-A64B-528D248292FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6108F9-DD5A-4E9B-8798-5036404B6958}">
   <dimension ref="A1:AX1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14273,7 +14273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96D7EBC-79DD-4DA9-985D-68FE16543FEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2E5998-B2B8-47A9-B791-7D7EE2E9455F}">
   <dimension ref="A1:AX1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14440,7 +14440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D82EAE-B08E-47FB-BD4D-1352629EDAE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6448EF3-41BF-483A-8283-66016E4D4861}">
   <dimension ref="A1:AX1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
